--- a/Gabarit Carte.xlsx
+++ b/Gabarit Carte.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mes documents\Projet Carte Pokemon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mes documents\Projet\Carte Pokemon\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="140">
   <si>
     <t>"),</t>
   </si>
@@ -41,15 +41,6 @@
     <t>(SELECT idCarte FROM tCartes WHERE numSerie=</t>
   </si>
   <si>
-    <t>(SELECT idPokemon FROM tPokemons WHERE nom="</t>
-  </si>
-  <si>
-    <t>(SELECT idTrainer FROM tTrainers WHERE nom="</t>
-  </si>
-  <si>
-    <t>(SELECT idEnergie FROM tEnergies WHERE nom="</t>
-  </si>
-  <si>
     <t>Meowth</t>
   </si>
   <si>
@@ -432,6 +423,27 @@
   </si>
   <si>
     <t>Rainbow</t>
+  </si>
+  <si>
+    <t>,(SELECT idSpecialite FROM tSpecialites WHERE nom="</t>
+  </si>
+  <si>
+    <t>Dark</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>")),</t>
+  </si>
+  <si>
+    <t>((SELECT idPokemon FROM tPokemons WHERE nom="</t>
+  </si>
+  <si>
+    <t>((SELECT idTrainer FROM tTrainers WHERE nom="</t>
+  </si>
+  <si>
+    <t>((SELECT idEnergie FROM tEnergies WHERE nom="</t>
   </si>
 </sst>
 </file>
@@ -750,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T131"/>
+  <dimension ref="A2:V131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:S84"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,216 +787,245 @@
     <col min="15" max="15" width="6.85546875" customWidth="1"/>
     <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.7109375" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" customWidth="1"/>
+    <col min="21" max="21" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" t="s">
+        <v>133</v>
+      </c>
+      <c r="U2" t="s">
+        <v>134</v>
+      </c>
+      <c r="V2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>137</v>
+      </c>
+      <c r="M3" t="s">
+        <v>79</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
+        <v>77</v>
+      </c>
+      <c r="S3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" t="s">
+        <v>133</v>
+      </c>
+      <c r="U3" t="s">
+        <v>134</v>
+      </c>
+      <c r="V3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M4" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" t="s">
+        <v>77</v>
+      </c>
+      <c r="S4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" t="s">
+        <v>133</v>
+      </c>
+      <c r="U4" t="s">
+        <v>134</v>
+      </c>
+      <c r="V4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
+        <v>137</v>
+      </c>
+      <c r="M5" t="s">
         <v>81</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="L3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" t="s">
-        <v>82</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" t="s">
-        <v>80</v>
-      </c>
-      <c r="S3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="L4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" t="s">
-        <v>83</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" t="s">
-        <v>80</v>
-      </c>
-      <c r="S4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>4</v>
-      </c>
-      <c r="L5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" t="s">
-        <v>84</v>
-      </c>
       <c r="N5" s="1" t="s">
         <v>0</v>
       </c>
@@ -995,21 +1036,30 @@
         <v>4</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T5" t="s">
+        <v>133</v>
+      </c>
+      <c r="U5" t="s">
+        <v>134</v>
+      </c>
+      <c r="V5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
@@ -1018,7 +1068,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
@@ -1027,7 +1077,7 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>0</v>
@@ -1036,10 +1086,10 @@
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>0</v>
@@ -1051,21 +1101,30 @@
         <v>5</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T6" t="s">
+        <v>133</v>
+      </c>
+      <c r="U6" t="s">
+        <v>134</v>
+      </c>
+      <c r="V6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>0</v>
@@ -1074,7 +1133,7 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>0</v>
@@ -1083,7 +1142,7 @@
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>0</v>
@@ -1092,10 +1151,10 @@
         <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>0</v>
@@ -1107,21 +1166,30 @@
         <v>6</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T7" t="s">
+        <v>133</v>
+      </c>
+      <c r="U7" t="s">
+        <v>134</v>
+      </c>
+      <c r="V7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
@@ -1130,7 +1198,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -1139,7 +1207,7 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>0</v>
@@ -1148,10 +1216,10 @@
         <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>0</v>
@@ -1163,21 +1231,30 @@
         <v>7</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T8" t="s">
+        <v>133</v>
+      </c>
+      <c r="U8" t="s">
+        <v>134</v>
+      </c>
+      <c r="V8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>0</v>
@@ -1186,7 +1263,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
@@ -1195,7 +1272,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>0</v>
@@ -1204,10 +1281,10 @@
         <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>0</v>
@@ -1219,21 +1296,30 @@
         <v>8</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T9" t="s">
+        <v>133</v>
+      </c>
+      <c r="U9" t="s">
+        <v>134</v>
+      </c>
+      <c r="V9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>0</v>
@@ -1242,7 +1328,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
@@ -1251,7 +1337,7 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>0</v>
@@ -1260,10 +1346,10 @@
         <v>9</v>
       </c>
       <c r="L10" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>0</v>
@@ -1275,21 +1361,30 @@
         <v>9</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T10" t="s">
+        <v>133</v>
+      </c>
+      <c r="U10" t="s">
+        <v>134</v>
+      </c>
+      <c r="V10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
@@ -1298,7 +1393,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
@@ -1307,7 +1402,7 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>0</v>
@@ -1316,10 +1411,10 @@
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>0</v>
@@ -1331,21 +1426,30 @@
         <v>10</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T11" t="s">
+        <v>133</v>
+      </c>
+      <c r="U11" t="s">
+        <v>134</v>
+      </c>
+      <c r="V11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>0</v>
@@ -1354,7 +1458,7 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -1363,7 +1467,7 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>0</v>
@@ -1372,10 +1476,10 @@
         <v>11</v>
       </c>
       <c r="L12" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>0</v>
@@ -1387,21 +1491,30 @@
         <v>11</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T12" t="s">
+        <v>133</v>
+      </c>
+      <c r="U12" t="s">
+        <v>134</v>
+      </c>
+      <c r="V12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>0</v>
@@ -1410,7 +1523,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -1419,7 +1532,7 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>0</v>
@@ -1428,10 +1541,10 @@
         <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>0</v>
@@ -1443,21 +1556,30 @@
         <v>12</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T13" t="s">
+        <v>133</v>
+      </c>
+      <c r="U13" t="s">
+        <v>134</v>
+      </c>
+      <c r="V13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>0</v>
@@ -1466,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -1475,7 +1597,7 @@
         <v>3</v>
       </c>
       <c r="H14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>0</v>
@@ -1484,10 +1606,10 @@
         <v>13</v>
       </c>
       <c r="L14" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>0</v>
@@ -1499,21 +1621,30 @@
         <v>13</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T14" t="s">
+        <v>133</v>
+      </c>
+      <c r="U14" t="s">
+        <v>134</v>
+      </c>
+      <c r="V14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>0</v>
@@ -1522,7 +1653,7 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -1531,7 +1662,7 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>0</v>
@@ -1540,10 +1671,10 @@
         <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>0</v>
@@ -1555,21 +1686,30 @@
         <v>14</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T15" t="s">
+        <v>133</v>
+      </c>
+      <c r="U15" t="s">
+        <v>134</v>
+      </c>
+      <c r="V15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>0</v>
@@ -1578,7 +1718,7 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -1587,7 +1727,7 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>0</v>
@@ -1596,10 +1736,10 @@
         <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="M16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>0</v>
@@ -1611,21 +1751,30 @@
         <v>15</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T16" t="s">
+        <v>133</v>
+      </c>
+      <c r="U16" t="s">
+        <v>135</v>
+      </c>
+      <c r="V16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>0</v>
@@ -1634,7 +1783,7 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -1643,7 +1792,7 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>0</v>
@@ -1652,10 +1801,10 @@
         <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="M17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>0</v>
@@ -1667,21 +1816,30 @@
         <v>16</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T17" t="s">
+        <v>133</v>
+      </c>
+      <c r="U17" t="s">
+        <v>135</v>
+      </c>
+      <c r="V17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>0</v>
@@ -1690,7 +1848,7 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>0</v>
@@ -1699,7 +1857,7 @@
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>0</v>
@@ -1708,10 +1866,10 @@
         <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="M18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>0</v>
@@ -1723,21 +1881,30 @@
         <v>17</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T18" t="s">
+        <v>133</v>
+      </c>
+      <c r="U18" t="s">
+        <v>135</v>
+      </c>
+      <c r="V18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>0</v>
@@ -1746,7 +1913,7 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>0</v>
@@ -1755,7 +1922,7 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>0</v>
@@ -1764,10 +1931,10 @@
         <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>0</v>
@@ -1779,21 +1946,30 @@
         <v>18</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T19" t="s">
+        <v>133</v>
+      </c>
+      <c r="U19" t="s">
+        <v>134</v>
+      </c>
+      <c r="V19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>0</v>
@@ -1802,7 +1978,7 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
@@ -1811,7 +1987,7 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>0</v>
@@ -1820,10 +1996,10 @@
         <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>0</v>
@@ -1835,21 +2011,30 @@
         <v>19</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T20" t="s">
+        <v>133</v>
+      </c>
+      <c r="U20" t="s">
+        <v>134</v>
+      </c>
+      <c r="V20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>0</v>
@@ -1858,7 +2043,7 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -1867,7 +2052,7 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>0</v>
@@ -1876,10 +2061,10 @@
         <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>0</v>
@@ -1891,21 +2076,30 @@
         <v>20</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T21" t="s">
+        <v>133</v>
+      </c>
+      <c r="U21" t="s">
+        <v>134</v>
+      </c>
+      <c r="V21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>0</v>
@@ -1914,7 +2108,7 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -1923,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="H22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>0</v>
@@ -1932,10 +2126,10 @@
         <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>0</v>
@@ -1947,21 +2141,30 @@
         <v>21</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T22" t="s">
+        <v>133</v>
+      </c>
+      <c r="U22" t="s">
+        <v>134</v>
+      </c>
+      <c r="V22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>0</v>
@@ -1970,7 +2173,7 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -1979,7 +2182,7 @@
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>0</v>
@@ -1988,10 +2191,10 @@
         <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>0</v>
@@ -2003,21 +2206,30 @@
         <v>22</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T23" t="s">
+        <v>133</v>
+      </c>
+      <c r="U23" t="s">
+        <v>134</v>
+      </c>
+      <c r="V23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>0</v>
@@ -2026,7 +2238,7 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -2035,7 +2247,7 @@
         <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>0</v>
@@ -2044,10 +2256,10 @@
         <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>0</v>
@@ -2059,21 +2271,30 @@
         <v>23</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T24" t="s">
+        <v>133</v>
+      </c>
+      <c r="U24" t="s">
+        <v>134</v>
+      </c>
+      <c r="V24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>0</v>
@@ -2082,7 +2303,7 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>0</v>
@@ -2091,7 +2312,7 @@
         <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>0</v>
@@ -2100,10 +2321,10 @@
         <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>0</v>
@@ -2115,21 +2336,30 @@
         <v>24</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T25" t="s">
+        <v>133</v>
+      </c>
+      <c r="U25" t="s">
+        <v>134</v>
+      </c>
+      <c r="V25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>0</v>
@@ -2138,7 +2368,7 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>0</v>
@@ -2147,7 +2377,7 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>0</v>
@@ -2156,10 +2386,10 @@
         <v>25</v>
       </c>
       <c r="L26" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>0</v>
@@ -2171,21 +2401,30 @@
         <v>25</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T26" t="s">
+        <v>133</v>
+      </c>
+      <c r="U26" t="s">
+        <v>134</v>
+      </c>
+      <c r="V26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>0</v>
@@ -2194,7 +2433,7 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>0</v>
@@ -2203,7 +2442,7 @@
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>0</v>
@@ -2212,10 +2451,10 @@
         <v>26</v>
       </c>
       <c r="L27" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>0</v>
@@ -2227,21 +2466,30 @@
         <v>26</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T27" t="s">
+        <v>133</v>
+      </c>
+      <c r="U27" t="s">
+        <v>134</v>
+      </c>
+      <c r="V27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>0</v>
@@ -2250,7 +2498,7 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>0</v>
@@ -2259,7 +2507,7 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>0</v>
@@ -2268,10 +2516,10 @@
         <v>27</v>
       </c>
       <c r="L28" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M28" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>0</v>
@@ -2283,21 +2531,30 @@
         <v>27</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T28" t="s">
+        <v>133</v>
+      </c>
+      <c r="U28" t="s">
+        <v>134</v>
+      </c>
+      <c r="V28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>0</v>
@@ -2306,7 +2563,7 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>0</v>
@@ -2315,7 +2572,7 @@
         <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>0</v>
@@ -2324,10 +2581,10 @@
         <v>28</v>
       </c>
       <c r="L29" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M29" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>0</v>
@@ -2339,21 +2596,30 @@
         <v>28</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R29" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T29" t="s">
+        <v>133</v>
+      </c>
+      <c r="U29" t="s">
+        <v>134</v>
+      </c>
+      <c r="V29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>0</v>
@@ -2362,7 +2628,7 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>0</v>
@@ -2371,7 +2637,7 @@
         <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>0</v>
@@ -2380,10 +2646,10 @@
         <v>29</v>
       </c>
       <c r="L30" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M30" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>0</v>
@@ -2395,21 +2661,30 @@
         <v>29</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T30" t="s">
+        <v>133</v>
+      </c>
+      <c r="U30" t="s">
+        <v>134</v>
+      </c>
+      <c r="V30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>0</v>
@@ -2418,7 +2693,7 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>0</v>
@@ -2427,7 +2702,7 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>0</v>
@@ -2436,10 +2711,10 @@
         <v>30</v>
       </c>
       <c r="L31" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M31" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>0</v>
@@ -2451,21 +2726,30 @@
         <v>30</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T31" t="s">
+        <v>133</v>
+      </c>
+      <c r="U31" t="s">
+        <v>134</v>
+      </c>
+      <c r="V31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>0</v>
@@ -2474,7 +2758,7 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>0</v>
@@ -2483,7 +2767,7 @@
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>0</v>
@@ -2492,10 +2776,10 @@
         <v>31</v>
       </c>
       <c r="L32" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M32" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>0</v>
@@ -2507,21 +2791,30 @@
         <v>31</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R32" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T32" t="s">
+        <v>133</v>
+      </c>
+      <c r="U32" t="s">
+        <v>134</v>
+      </c>
+      <c r="V32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>0</v>
@@ -2530,7 +2823,7 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>0</v>
@@ -2539,7 +2832,7 @@
         <v>3</v>
       </c>
       <c r="H33" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>0</v>
@@ -2548,10 +2841,10 @@
         <v>32</v>
       </c>
       <c r="L33" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M33" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>0</v>
@@ -2563,21 +2856,30 @@
         <v>32</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R33" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T33" t="s">
+        <v>133</v>
+      </c>
+      <c r="U33" t="s">
+        <v>134</v>
+      </c>
+      <c r="V33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>0</v>
@@ -2586,16 +2888,16 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" t="s">
         <v>17</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H34" t="s">
-        <v>20</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>0</v>
@@ -2604,10 +2906,10 @@
         <v>33</v>
       </c>
       <c r="L34" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M34" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>0</v>
@@ -2619,21 +2921,30 @@
         <v>33</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T34" t="s">
+        <v>133</v>
+      </c>
+      <c r="U34" t="s">
+        <v>134</v>
+      </c>
+      <c r="V34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>0</v>
@@ -2642,7 +2953,7 @@
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>0</v>
@@ -2651,7 +2962,7 @@
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>0</v>
@@ -2660,10 +2971,10 @@
         <v>34</v>
       </c>
       <c r="L35" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M35" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>0</v>
@@ -2675,21 +2986,30 @@
         <v>34</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R35" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T35" t="s">
+        <v>133</v>
+      </c>
+      <c r="U35" t="s">
+        <v>134</v>
+      </c>
+      <c r="V35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>0</v>
@@ -2698,7 +3018,7 @@
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>0</v>
@@ -2707,7 +3027,7 @@
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>0</v>
@@ -2716,10 +3036,10 @@
         <v>35</v>
       </c>
       <c r="L36" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M36" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>0</v>
@@ -2731,21 +3051,30 @@
         <v>35</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R36" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T36" t="s">
+        <v>133</v>
+      </c>
+      <c r="U36" t="s">
+        <v>134</v>
+      </c>
+      <c r="V36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>0</v>
@@ -2754,7 +3083,7 @@
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>0</v>
@@ -2763,7 +3092,7 @@
         <v>3</v>
       </c>
       <c r="H37" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>0</v>
@@ -2772,10 +3101,10 @@
         <v>36</v>
       </c>
       <c r="L37" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>0</v>
@@ -2787,21 +3116,30 @@
         <v>36</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R37" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T37" t="s">
+        <v>133</v>
+      </c>
+      <c r="U37" t="s">
+        <v>134</v>
+      </c>
+      <c r="V37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>0</v>
@@ -2810,7 +3148,7 @@
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>0</v>
@@ -2819,7 +3157,7 @@
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>0</v>
@@ -2828,10 +3166,10 @@
         <v>37</v>
       </c>
       <c r="L38" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M38" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>0</v>
@@ -2843,21 +3181,30 @@
         <v>37</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R38" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T38" t="s">
+        <v>133</v>
+      </c>
+      <c r="U38" t="s">
+        <v>134</v>
+      </c>
+      <c r="V38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>0</v>
@@ -2866,7 +3213,7 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>0</v>
@@ -2875,7 +3222,7 @@
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>0</v>
@@ -2884,10 +3231,10 @@
         <v>38</v>
       </c>
       <c r="L39" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M39" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>0</v>
@@ -2899,21 +3246,30 @@
         <v>38</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R39" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T39" t="s">
+        <v>133</v>
+      </c>
+      <c r="U39" t="s">
+        <v>134</v>
+      </c>
+      <c r="V39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>0</v>
@@ -2922,7 +3278,7 @@
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>0</v>
@@ -2931,7 +3287,7 @@
         <v>3</v>
       </c>
       <c r="H40" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>0</v>
@@ -2940,10 +3296,10 @@
         <v>39</v>
       </c>
       <c r="L40" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M40" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>0</v>
@@ -2955,21 +3311,30 @@
         <v>39</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R40" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T40" t="s">
+        <v>133</v>
+      </c>
+      <c r="U40" t="s">
+        <v>134</v>
+      </c>
+      <c r="V40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>0</v>
@@ -2978,7 +3343,7 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>0</v>
@@ -2987,7 +3352,7 @@
         <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>0</v>
@@ -2996,10 +3361,10 @@
         <v>40</v>
       </c>
       <c r="L41" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M41" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>0</v>
@@ -3011,21 +3376,30 @@
         <v>40</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T41" t="s">
+        <v>133</v>
+      </c>
+      <c r="U41" t="s">
+        <v>134</v>
+      </c>
+      <c r="V41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>0</v>
@@ -3034,7 +3408,7 @@
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>0</v>
@@ -3043,7 +3417,7 @@
         <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>0</v>
@@ -3052,10 +3426,10 @@
         <v>41</v>
       </c>
       <c r="L42" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M42" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>0</v>
@@ -3067,21 +3441,30 @@
         <v>41</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R42" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T42" t="s">
+        <v>133</v>
+      </c>
+      <c r="U42" t="s">
+        <v>134</v>
+      </c>
+      <c r="V42" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>0</v>
@@ -3090,16 +3473,16 @@
         <v>2</v>
       </c>
       <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" t="s">
         <v>17</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G43" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" t="s">
-        <v>20</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>0</v>
@@ -3108,10 +3491,10 @@
         <v>42</v>
       </c>
       <c r="L43" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M43" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>0</v>
@@ -3123,21 +3506,30 @@
         <v>42</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R43" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S43" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T43" t="s">
+        <v>133</v>
+      </c>
+      <c r="U43" t="s">
+        <v>134</v>
+      </c>
+      <c r="V43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>0</v>
@@ -3146,7 +3538,7 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>0</v>
@@ -3155,7 +3547,7 @@
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>0</v>
@@ -3164,10 +3556,10 @@
         <v>43</v>
       </c>
       <c r="L44" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M44" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>0</v>
@@ -3179,21 +3571,30 @@
         <v>43</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R44" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T44" t="s">
+        <v>133</v>
+      </c>
+      <c r="U44" t="s">
+        <v>134</v>
+      </c>
+      <c r="V44" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>0</v>
@@ -3202,7 +3603,7 @@
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>0</v>
@@ -3211,7 +3612,7 @@
         <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>0</v>
@@ -3220,10 +3621,10 @@
         <v>44</v>
       </c>
       <c r="L45" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M45" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>0</v>
@@ -3235,21 +3636,30 @@
         <v>44</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R45" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S45" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T45" t="s">
+        <v>133</v>
+      </c>
+      <c r="U45" t="s">
+        <v>134</v>
+      </c>
+      <c r="V45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>0</v>
@@ -3258,7 +3668,7 @@
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>0</v>
@@ -3267,7 +3677,7 @@
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>0</v>
@@ -3276,10 +3686,10 @@
         <v>45</v>
       </c>
       <c r="L46" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M46" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>0</v>
@@ -3291,21 +3701,30 @@
         <v>45</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R46" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S46" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T46" t="s">
+        <v>133</v>
+      </c>
+      <c r="U46" t="s">
+        <v>134</v>
+      </c>
+      <c r="V46" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>0</v>
@@ -3314,7 +3733,7 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>0</v>
@@ -3323,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>0</v>
@@ -3332,10 +3751,10 @@
         <v>46</v>
       </c>
       <c r="L47" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M47" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>0</v>
@@ -3347,21 +3766,30 @@
         <v>46</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R47" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S47" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T47" t="s">
+        <v>133</v>
+      </c>
+      <c r="U47" t="s">
+        <v>134</v>
+      </c>
+      <c r="V47" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>0</v>
@@ -3370,7 +3798,7 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>0</v>
@@ -3379,7 +3807,7 @@
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>0</v>
@@ -3388,10 +3816,10 @@
         <v>47</v>
       </c>
       <c r="L48" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M48" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>0</v>
@@ -3403,21 +3831,30 @@
         <v>47</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T48" t="s">
+        <v>133</v>
+      </c>
+      <c r="U48" t="s">
+        <v>135</v>
+      </c>
+      <c r="V48" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>0</v>
@@ -3426,16 +3863,16 @@
         <v>2</v>
       </c>
       <c r="E49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" t="s">
         <v>17</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G49" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" t="s">
-        <v>20</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>0</v>
@@ -3444,10 +3881,10 @@
         <v>48</v>
       </c>
       <c r="L49" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M49" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>0</v>
@@ -3459,21 +3896,30 @@
         <v>48</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R49" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T49" t="s">
+        <v>133</v>
+      </c>
+      <c r="U49" t="s">
+        <v>135</v>
+      </c>
+      <c r="V49" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>0</v>
@@ -3482,7 +3928,7 @@
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>0</v>
@@ -3491,7 +3937,7 @@
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>0</v>
@@ -3500,10 +3946,10 @@
         <v>49</v>
       </c>
       <c r="L50" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M50" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>0</v>
@@ -3515,21 +3961,30 @@
         <v>49</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R50" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S50" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T50" t="s">
+        <v>133</v>
+      </c>
+      <c r="U50" t="s">
+        <v>135</v>
+      </c>
+      <c r="V50" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>0</v>
@@ -3538,7 +3993,7 @@
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>0</v>
@@ -3547,7 +4002,7 @@
         <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>0</v>
@@ -3556,10 +4011,10 @@
         <v>50</v>
       </c>
       <c r="L51" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M51" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>0</v>
@@ -3571,21 +4026,30 @@
         <v>50</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R51" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T51" t="s">
+        <v>133</v>
+      </c>
+      <c r="U51" t="s">
+        <v>135</v>
+      </c>
+      <c r="V51" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>0</v>
@@ -3594,7 +4058,7 @@
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>0</v>
@@ -3603,7 +4067,7 @@
         <v>3</v>
       </c>
       <c r="H52" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>0</v>
@@ -3612,10 +4076,10 @@
         <v>51</v>
       </c>
       <c r="L52" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M52" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>0</v>
@@ -3627,21 +4091,30 @@
         <v>51</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R52" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S52" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T52" t="s">
+        <v>133</v>
+      </c>
+      <c r="U52" t="s">
+        <v>135</v>
+      </c>
+      <c r="V52" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>0</v>
@@ -3650,7 +4123,7 @@
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>0</v>
@@ -3659,7 +4132,7 @@
         <v>3</v>
       </c>
       <c r="H53" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>0</v>
@@ -3668,10 +4141,10 @@
         <v>52</v>
       </c>
       <c r="L53" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M53" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>0</v>
@@ -3683,21 +4156,30 @@
         <v>52</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R53" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S53" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T53" t="s">
+        <v>133</v>
+      </c>
+      <c r="U53" t="s">
+        <v>135</v>
+      </c>
+      <c r="V53" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>0</v>
@@ -3706,7 +4188,7 @@
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>0</v>
@@ -3715,7 +4197,7 @@
         <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>0</v>
@@ -3724,10 +4206,10 @@
         <v>53</v>
       </c>
       <c r="L54" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M54" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N54" s="1" t="s">
         <v>0</v>
@@ -3739,21 +4221,30 @@
         <v>53</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R54" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S54" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T54" t="s">
+        <v>133</v>
+      </c>
+      <c r="U54" t="s">
+        <v>135</v>
+      </c>
+      <c r="V54" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>0</v>
@@ -3762,7 +4253,7 @@
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>0</v>
@@ -3771,7 +4262,7 @@
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>0</v>
@@ -3780,10 +4271,10 @@
         <v>54</v>
       </c>
       <c r="L55" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M55" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N55" s="1" t="s">
         <v>0</v>
@@ -3795,21 +4286,30 @@
         <v>54</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R55" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S55" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T55" t="s">
+        <v>133</v>
+      </c>
+      <c r="U55" t="s">
+        <v>135</v>
+      </c>
+      <c r="V55" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>0</v>
@@ -3818,7 +4318,7 @@
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>0</v>
@@ -3827,7 +4327,7 @@
         <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>0</v>
@@ -3836,10 +4336,10 @@
         <v>55</v>
       </c>
       <c r="L56" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M56" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>0</v>
@@ -3851,21 +4351,30 @@
         <v>55</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R56" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S56" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T56" t="s">
+        <v>133</v>
+      </c>
+      <c r="U56" t="s">
+        <v>135</v>
+      </c>
+      <c r="V56" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>0</v>
@@ -3874,7 +4383,7 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>0</v>
@@ -3883,7 +4392,7 @@
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>0</v>
@@ -3892,10 +4401,10 @@
         <v>56</v>
       </c>
       <c r="L57" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M57" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>0</v>
@@ -3907,21 +4416,30 @@
         <v>56</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R57" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S57" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T57" t="s">
+        <v>133</v>
+      </c>
+      <c r="U57" t="s">
+        <v>135</v>
+      </c>
+      <c r="V57" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>0</v>
@@ -3930,7 +4448,7 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>0</v>
@@ -3939,7 +4457,7 @@
         <v>3</v>
       </c>
       <c r="H58" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>0</v>
@@ -3948,10 +4466,10 @@
         <v>57</v>
       </c>
       <c r="L58" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M58" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>0</v>
@@ -3963,21 +4481,30 @@
         <v>57</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R58" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S58" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T58" t="s">
+        <v>133</v>
+      </c>
+      <c r="U58" t="s">
+        <v>135</v>
+      </c>
+      <c r="V58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>0</v>
@@ -3986,7 +4513,7 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>0</v>
@@ -3995,7 +4522,7 @@
         <v>3</v>
       </c>
       <c r="H59" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>0</v>
@@ -4004,10 +4531,10 @@
         <v>58</v>
       </c>
       <c r="L59" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M59" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N59" s="1" t="s">
         <v>0</v>
@@ -4019,21 +4546,30 @@
         <v>58</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R59" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S59" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T59" t="s">
+        <v>133</v>
+      </c>
+      <c r="U59" t="s">
+        <v>135</v>
+      </c>
+      <c r="V59" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>0</v>
@@ -4042,7 +4578,7 @@
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>0</v>
@@ -4051,7 +4587,7 @@
         <v>3</v>
       </c>
       <c r="H60" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>0</v>
@@ -4060,10 +4596,10 @@
         <v>59</v>
       </c>
       <c r="L60" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M60" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>0</v>
@@ -4075,21 +4611,30 @@
         <v>59</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R60" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S60" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T60" t="s">
+        <v>133</v>
+      </c>
+      <c r="U60" t="s">
+        <v>135</v>
+      </c>
+      <c r="V60" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>0</v>
@@ -4098,16 +4643,16 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>3</v>
+      </c>
+      <c r="H61" t="s">
         <v>18</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G61" t="s">
-        <v>3</v>
-      </c>
-      <c r="H61" t="s">
-        <v>21</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>0</v>
@@ -4116,10 +4661,10 @@
         <v>60</v>
       </c>
       <c r="L61" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M61" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N61" s="1" t="s">
         <v>0</v>
@@ -4131,21 +4676,30 @@
         <v>60</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R61" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S61" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T61" t="s">
+        <v>133</v>
+      </c>
+      <c r="U61" t="s">
+        <v>135</v>
+      </c>
+      <c r="V61" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>0</v>
@@ -4154,7 +4708,7 @@
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>0</v>
@@ -4163,7 +4717,7 @@
         <v>3</v>
       </c>
       <c r="H62" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>0</v>
@@ -4172,10 +4726,10 @@
         <v>61</v>
       </c>
       <c r="L62" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M62" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>0</v>
@@ -4187,21 +4741,30 @@
         <v>61</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R62" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S62" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T62" t="s">
+        <v>133</v>
+      </c>
+      <c r="U62" t="s">
+        <v>135</v>
+      </c>
+      <c r="V62" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>0</v>
@@ -4210,7 +4773,7 @@
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>0</v>
@@ -4219,7 +4782,7 @@
         <v>3</v>
       </c>
       <c r="H63" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>0</v>
@@ -4228,10 +4791,10 @@
         <v>62</v>
       </c>
       <c r="L63" t="s">
+        <v>137</v>
+      </c>
+      <c r="M63" t="s">
         <v>5</v>
-      </c>
-      <c r="M63" t="s">
-        <v>8</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>0</v>
@@ -4243,21 +4806,30 @@
         <v>62</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R63" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S63" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T63" t="s">
+        <v>133</v>
+      </c>
+      <c r="U63" t="s">
+        <v>135</v>
+      </c>
+      <c r="V63" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>0</v>
@@ -4266,7 +4838,7 @@
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>0</v>
@@ -4275,7 +4847,7 @@
         <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>0</v>
@@ -4284,10 +4856,10 @@
         <v>63</v>
       </c>
       <c r="L64" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M64" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N64" s="1" t="s">
         <v>0</v>
@@ -4299,21 +4871,30 @@
         <v>63</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R64" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S64" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T64" t="s">
+        <v>133</v>
+      </c>
+      <c r="U64" t="s">
+        <v>135</v>
+      </c>
+      <c r="V64" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>0</v>
@@ -4322,7 +4903,7 @@
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>0</v>
@@ -4331,7 +4912,7 @@
         <v>3</v>
       </c>
       <c r="H65" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>0</v>
@@ -4340,10 +4921,10 @@
         <v>64</v>
       </c>
       <c r="L65" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M65" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>0</v>
@@ -4355,21 +4936,30 @@
         <v>64</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R65" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S65" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T65" t="s">
+        <v>133</v>
+      </c>
+      <c r="U65" t="s">
+        <v>135</v>
+      </c>
+      <c r="V65" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>0</v>
@@ -4378,7 +4968,7 @@
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>0</v>
@@ -4387,7 +4977,7 @@
         <v>3</v>
       </c>
       <c r="H66" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>0</v>
@@ -4396,10 +4986,10 @@
         <v>65</v>
       </c>
       <c r="L66" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M66" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N66" s="1" t="s">
         <v>0</v>
@@ -4411,21 +5001,30 @@
         <v>65</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R66" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S66" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T66" t="s">
+        <v>133</v>
+      </c>
+      <c r="U66" t="s">
+        <v>135</v>
+      </c>
+      <c r="V66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>0</v>
@@ -4434,7 +5033,7 @@
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>0</v>
@@ -4443,7 +5042,7 @@
         <v>3</v>
       </c>
       <c r="H67" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>0</v>
@@ -4452,10 +5051,10 @@
         <v>66</v>
       </c>
       <c r="L67" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M67" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N67" s="1" t="s">
         <v>0</v>
@@ -4467,21 +5066,30 @@
         <v>66</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R67" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S67" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T67" t="s">
+        <v>133</v>
+      </c>
+      <c r="U67" t="s">
+        <v>135</v>
+      </c>
+      <c r="V67" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>0</v>
@@ -4490,7 +5098,7 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>0</v>
@@ -4499,7 +5107,7 @@
         <v>3</v>
       </c>
       <c r="H68" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>0</v>
@@ -4508,10 +5116,10 @@
         <v>67</v>
       </c>
       <c r="L68" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M68" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N68" s="1" t="s">
         <v>0</v>
@@ -4523,21 +5131,30 @@
         <v>67</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R68" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S68" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T68" t="s">
+        <v>133</v>
+      </c>
+      <c r="U68" t="s">
+        <v>135</v>
+      </c>
+      <c r="V68" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>0</v>
@@ -4546,7 +5163,7 @@
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>0</v>
@@ -4555,7 +5172,7 @@
         <v>3</v>
       </c>
       <c r="H69" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>0</v>
@@ -4564,10 +5181,10 @@
         <v>68</v>
       </c>
       <c r="L69" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M69" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>0</v>
@@ -4579,21 +5196,30 @@
         <v>68</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R69" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S69" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T69" t="s">
+        <v>133</v>
+      </c>
+      <c r="U69" t="s">
+        <v>135</v>
+      </c>
+      <c r="V69" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>0</v>
@@ -4602,16 +5228,16 @@
         <v>2</v>
       </c>
       <c r="E70" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
+        <v>3</v>
+      </c>
+      <c r="H70" t="s">
         <v>18</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G70" t="s">
-        <v>3</v>
-      </c>
-      <c r="H70" t="s">
-        <v>21</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>0</v>
@@ -4620,10 +5246,10 @@
         <v>69</v>
       </c>
       <c r="L70" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M70" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>0</v>
@@ -4635,21 +5261,30 @@
         <v>69</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R70" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S70" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T70" t="s">
+        <v>133</v>
+      </c>
+      <c r="U70" t="s">
+        <v>135</v>
+      </c>
+      <c r="V70" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>0</v>
@@ -4658,7 +5293,7 @@
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>0</v>
@@ -4667,7 +5302,7 @@
         <v>3</v>
       </c>
       <c r="H71" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>0</v>
@@ -4676,10 +5311,10 @@
         <v>70</v>
       </c>
       <c r="L71" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M71" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N71" s="1" t="s">
         <v>0</v>
@@ -4691,21 +5326,30 @@
         <v>70</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R71" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S71" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T71" t="s">
+        <v>133</v>
+      </c>
+      <c r="U71" t="s">
+        <v>135</v>
+      </c>
+      <c r="V71" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>0</v>
@@ -4714,16 +5358,16 @@
         <v>2</v>
       </c>
       <c r="E72" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" t="s">
         <v>16</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G72" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" t="s">
-        <v>19</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>0</v>
@@ -4732,10 +5376,10 @@
         <v>71</v>
       </c>
       <c r="L72" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="M72" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N72" s="1" t="s">
         <v>0</v>
@@ -4747,21 +5391,30 @@
         <v>71</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R72" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S72" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T72" t="s">
+        <v>133</v>
+      </c>
+      <c r="U72" t="s">
+        <v>135</v>
+      </c>
+      <c r="V72" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>0</v>
@@ -4770,16 +5423,16 @@
         <v>2</v>
       </c>
       <c r="E73" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G73" t="s">
+        <v>3</v>
+      </c>
+      <c r="H73" t="s">
         <v>16</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G73" t="s">
-        <v>3</v>
-      </c>
-      <c r="H73" t="s">
-        <v>19</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>0</v>
@@ -4788,10 +5441,10 @@
         <v>72</v>
       </c>
       <c r="L73" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="M73" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N73" s="1" t="s">
         <v>0</v>
@@ -4803,21 +5456,30 @@
         <v>72</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R73" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S73" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T73" t="s">
+        <v>133</v>
+      </c>
+      <c r="U73" t="s">
+        <v>135</v>
+      </c>
+      <c r="V73" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>0</v>
@@ -4826,7 +5488,7 @@
         <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>0</v>
@@ -4835,7 +5497,7 @@
         <v>3</v>
       </c>
       <c r="H74" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>0</v>
@@ -4844,10 +5506,10 @@
         <v>73</v>
       </c>
       <c r="L74" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="M74" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="N74" s="1" t="s">
         <v>0</v>
@@ -4859,21 +5521,30 @@
         <v>73</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R74" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S74" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T74" t="s">
+        <v>133</v>
+      </c>
+      <c r="U74" t="s">
+        <v>135</v>
+      </c>
+      <c r="V74" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>0</v>
@@ -4882,7 +5553,7 @@
         <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>0</v>
@@ -4891,7 +5562,7 @@
         <v>3</v>
       </c>
       <c r="H75" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>0</v>
@@ -4900,10 +5571,10 @@
         <v>74</v>
       </c>
       <c r="L75" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="M75" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="N75" s="1" t="s">
         <v>0</v>
@@ -4915,21 +5586,30 @@
         <v>74</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R75" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S75" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T75" t="s">
+        <v>133</v>
+      </c>
+      <c r="U75" t="s">
+        <v>135</v>
+      </c>
+      <c r="V75" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>0</v>
@@ -4938,7 +5618,7 @@
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>0</v>
@@ -4947,7 +5627,7 @@
         <v>3</v>
       </c>
       <c r="H76" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>0</v>
@@ -4956,10 +5636,10 @@
         <v>75</v>
       </c>
       <c r="L76" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="M76" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>0</v>
@@ -4971,21 +5651,30 @@
         <v>75</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R76" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S76" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T76" t="s">
+        <v>133</v>
+      </c>
+      <c r="U76" t="s">
+        <v>135</v>
+      </c>
+      <c r="V76" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>0</v>
@@ -4994,7 +5683,7 @@
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>0</v>
@@ -5003,7 +5692,7 @@
         <v>3</v>
       </c>
       <c r="H77" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>0</v>
@@ -5012,10 +5701,10 @@
         <v>76</v>
       </c>
       <c r="L77" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="M77" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N77" s="1" t="s">
         <v>0</v>
@@ -5027,21 +5716,30 @@
         <v>76</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R77" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S77" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T77" t="s">
+        <v>133</v>
+      </c>
+      <c r="U77" t="s">
+        <v>135</v>
+      </c>
+      <c r="V77" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>0</v>
@@ -5050,7 +5748,7 @@
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>0</v>
@@ -5059,7 +5757,7 @@
         <v>3</v>
       </c>
       <c r="H78" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>0</v>
@@ -5068,10 +5766,10 @@
         <v>77</v>
       </c>
       <c r="L78" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="M78" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N78" s="1" t="s">
         <v>0</v>
@@ -5083,21 +5781,30 @@
         <v>77</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R78" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S78" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T78" t="s">
+        <v>133</v>
+      </c>
+      <c r="U78" t="s">
+        <v>135</v>
+      </c>
+      <c r="V78" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>0</v>
@@ -5106,7 +5813,7 @@
         <v>2</v>
       </c>
       <c r="E79" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>0</v>
@@ -5115,7 +5822,7 @@
         <v>3</v>
       </c>
       <c r="H79" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>0</v>
@@ -5124,10 +5831,10 @@
         <v>78</v>
       </c>
       <c r="L79" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="M79" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N79" s="1" t="s">
         <v>0</v>
@@ -5139,21 +5846,30 @@
         <v>78</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R79" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S79" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T79" t="s">
+        <v>133</v>
+      </c>
+      <c r="U79" t="s">
+        <v>135</v>
+      </c>
+      <c r="V79" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>0</v>
@@ -5162,7 +5878,7 @@
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>0</v>
@@ -5171,7 +5887,7 @@
         <v>3</v>
       </c>
       <c r="H80" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>0</v>
@@ -5180,10 +5896,10 @@
         <v>79</v>
       </c>
       <c r="L80" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="M80" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N80" s="1" t="s">
         <v>0</v>
@@ -5195,21 +5911,30 @@
         <v>79</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R80" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S80" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T80" t="s">
+        <v>133</v>
+      </c>
+      <c r="U80" t="s">
+        <v>135</v>
+      </c>
+      <c r="V80" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>0</v>
@@ -5218,7 +5943,7 @@
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>0</v>
@@ -5227,7 +5952,7 @@
         <v>3</v>
       </c>
       <c r="H81" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>0</v>
@@ -5236,10 +5961,10 @@
         <v>80</v>
       </c>
       <c r="L81" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="M81" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N81" s="1" t="s">
         <v>0</v>
@@ -5251,21 +5976,30 @@
         <v>80</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R81" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S81" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T81" t="s">
+        <v>133</v>
+      </c>
+      <c r="U81" t="s">
+        <v>135</v>
+      </c>
+      <c r="V81" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>0</v>
@@ -5274,16 +6008,16 @@
         <v>2</v>
       </c>
       <c r="E82" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G82" t="s">
+        <v>3</v>
+      </c>
+      <c r="H82" t="s">
         <v>17</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G82" t="s">
-        <v>3</v>
-      </c>
-      <c r="H82" t="s">
-        <v>20</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>0</v>
@@ -5292,10 +6026,10 @@
         <v>81</v>
       </c>
       <c r="L82" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="M82" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N82" s="1" t="s">
         <v>0</v>
@@ -5307,21 +6041,30 @@
         <v>81</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R82" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S82" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T82" t="s">
+        <v>133</v>
+      </c>
+      <c r="U82" t="s">
+        <v>135</v>
+      </c>
+      <c r="V82" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>0</v>
@@ -5330,16 +6073,16 @@
         <v>2</v>
       </c>
       <c r="E83" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G83" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" t="s">
         <v>17</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G83" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" t="s">
-        <v>20</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>0</v>
@@ -5348,10 +6091,10 @@
         <v>82</v>
       </c>
       <c r="L83" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="M83" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N83" s="1" t="s">
         <v>0</v>
@@ -5363,16 +6106,25 @@
         <v>82</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R83" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S83" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T83" t="s">
+        <v>133</v>
+      </c>
+      <c r="U83" t="s">
+        <v>135</v>
+      </c>
+      <c r="V83" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1</v>
       </c>
@@ -5384,7 +6136,7 @@
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>0</v>
@@ -5393,7 +6145,7 @@
         <v>3</v>
       </c>
       <c r="H84" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>0</v>
@@ -5402,10 +6154,10 @@
         <v>83</v>
       </c>
       <c r="L84" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M84" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N84" s="1" t="s">
         <v>0</v>
@@ -5417,16 +6169,25 @@
         <v>83</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R84" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S84" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T84" t="s">
+        <v>133</v>
+      </c>
+      <c r="U84" t="s">
+        <v>134</v>
+      </c>
+      <c r="V84" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1</v>
       </c>
@@ -5438,7 +6199,7 @@
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>0</v>
@@ -5453,10 +6214,10 @@
         <v>84</v>
       </c>
       <c r="L85" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M85" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N85" s="1" t="s">
         <v>0</v>
@@ -5468,16 +6229,16 @@
         <v>84</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R85" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S85" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1</v>
       </c>
@@ -5489,7 +6250,7 @@
         <v>2</v>
       </c>
       <c r="E86" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>0</v>
@@ -5504,10 +6265,10 @@
         <v>85</v>
       </c>
       <c r="L86" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M86" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N86" s="1" t="s">
         <v>0</v>
@@ -5519,16 +6280,16 @@
         <v>85</v>
       </c>
       <c r="Q86" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R86" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S86" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1</v>
       </c>
@@ -5540,7 +6301,7 @@
         <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>0</v>
@@ -5555,10 +6316,10 @@
         <v>86</v>
       </c>
       <c r="L87" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M87" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N87" s="1" t="s">
         <v>0</v>
@@ -5570,16 +6331,16 @@
         <v>86</v>
       </c>
       <c r="Q87" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R87" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S87" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1</v>
       </c>
@@ -5591,7 +6352,7 @@
         <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>0</v>
@@ -5606,10 +6367,10 @@
         <v>87</v>
       </c>
       <c r="L88" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M88" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N88" s="1" t="s">
         <v>0</v>
@@ -5621,16 +6382,16 @@
         <v>87</v>
       </c>
       <c r="Q88" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R88" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S88" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1</v>
       </c>
@@ -5642,7 +6403,7 @@
         <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>0</v>
@@ -5657,10 +6418,10 @@
         <v>88</v>
       </c>
       <c r="L89" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M89" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N89" s="1" t="s">
         <v>0</v>
@@ -5672,16 +6433,16 @@
         <v>88</v>
       </c>
       <c r="Q89" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R89" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S89" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1</v>
       </c>
@@ -5693,7 +6454,7 @@
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>0</v>
@@ -5708,10 +6469,10 @@
         <v>89</v>
       </c>
       <c r="L90" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M90" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N90" s="1" t="s">
         <v>0</v>
@@ -5723,16 +6484,16 @@
         <v>89</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R90" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S90" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1</v>
       </c>
@@ -5744,7 +6505,7 @@
         <v>2</v>
       </c>
       <c r="E91" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>0</v>
@@ -5759,10 +6520,10 @@
         <v>90</v>
       </c>
       <c r="L91" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M91" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N91" s="1" t="s">
         <v>0</v>
@@ -5774,16 +6535,16 @@
         <v>90</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R91" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S91" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1</v>
       </c>
@@ -5795,7 +6556,7 @@
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>0</v>
@@ -5810,10 +6571,10 @@
         <v>91</v>
       </c>
       <c r="L92" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M92" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N92" s="1" t="s">
         <v>0</v>
@@ -5825,16 +6586,16 @@
         <v>91</v>
       </c>
       <c r="Q92" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R92" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S92" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1</v>
       </c>
@@ -5846,7 +6607,7 @@
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>0</v>
@@ -5861,10 +6622,10 @@
         <v>92</v>
       </c>
       <c r="L93" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M93" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N93" s="1" t="s">
         <v>0</v>
@@ -5876,16 +6637,16 @@
         <v>92</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R93" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S93" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1</v>
       </c>
@@ -5897,7 +6658,7 @@
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>0</v>
@@ -5912,10 +6673,10 @@
         <v>93</v>
       </c>
       <c r="L94" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M94" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N94" s="1" t="s">
         <v>0</v>
@@ -5927,16 +6688,16 @@
         <v>93</v>
       </c>
       <c r="Q94" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R94" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S94" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1</v>
       </c>
@@ -5948,7 +6709,7 @@
         <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>0</v>
@@ -5963,10 +6724,10 @@
         <v>94</v>
       </c>
       <c r="L95" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M95" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N95" s="1" t="s">
         <v>0</v>
@@ -5978,16 +6739,16 @@
         <v>94</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R95" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S95" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1</v>
       </c>
@@ -5999,7 +6760,7 @@
         <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>0</v>
@@ -6014,10 +6775,10 @@
         <v>95</v>
       </c>
       <c r="L96" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M96" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N96" s="1" t="s">
         <v>0</v>
@@ -6029,13 +6790,13 @@
         <v>95</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R96" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S96" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
@@ -6050,7 +6811,7 @@
         <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>0</v>
@@ -6065,10 +6826,10 @@
         <v>96</v>
       </c>
       <c r="L97" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M97" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N97" s="1" t="s">
         <v>0</v>
@@ -6080,13 +6841,13 @@
         <v>96</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R97" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S97" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
@@ -6101,7 +6862,7 @@
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>0</v>
@@ -6116,10 +6877,10 @@
         <v>97</v>
       </c>
       <c r="L98" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M98" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N98" s="1" t="s">
         <v>0</v>
@@ -6131,13 +6892,13 @@
         <v>97</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R98" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S98" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
@@ -6152,7 +6913,7 @@
         <v>2</v>
       </c>
       <c r="E99" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>0</v>
@@ -6167,10 +6928,10 @@
         <v>98</v>
       </c>
       <c r="L99" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M99" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N99" s="1" t="s">
         <v>0</v>
@@ -6182,13 +6943,13 @@
         <v>98</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R99" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S99" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
@@ -6203,7 +6964,7 @@
         <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>0</v>
@@ -6218,10 +6979,10 @@
         <v>99</v>
       </c>
       <c r="L100" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M100" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N100" s="1" t="s">
         <v>0</v>
@@ -6233,13 +6994,13 @@
         <v>99</v>
       </c>
       <c r="Q100" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R100" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S100" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
@@ -6254,7 +7015,7 @@
         <v>2</v>
       </c>
       <c r="E101" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>0</v>
@@ -6269,10 +7030,10 @@
         <v>100</v>
       </c>
       <c r="L101" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M101" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N101" s="1" t="s">
         <v>0</v>
@@ -6284,13 +7045,13 @@
         <v>100</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R101" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S101" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
@@ -6305,7 +7066,7 @@
         <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>0</v>
@@ -6320,10 +7081,10 @@
         <v>101</v>
       </c>
       <c r="L102" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="M102" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N102" s="1" t="s">
         <v>0</v>
@@ -6335,13 +7096,13 @@
         <v>101</v>
       </c>
       <c r="Q102" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R102" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S102" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
@@ -6356,7 +7117,7 @@
         <v>2</v>
       </c>
       <c r="E103" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>0</v>
@@ -6371,10 +7132,10 @@
         <v>102</v>
       </c>
       <c r="L103" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="M103" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N103" s="1" t="s">
         <v>0</v>
@@ -6386,13 +7147,13 @@
         <v>102</v>
       </c>
       <c r="Q103" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R103" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S103" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
@@ -6407,7 +7168,7 @@
         <v>2</v>
       </c>
       <c r="E104" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>0</v>
@@ -6422,10 +7183,10 @@
         <v>103</v>
       </c>
       <c r="L104" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="M104" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N104" s="1" t="s">
         <v>0</v>
@@ -6437,13 +7198,13 @@
         <v>103</v>
       </c>
       <c r="Q104" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R104" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S104" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
@@ -6458,7 +7219,7 @@
         <v>2</v>
       </c>
       <c r="E105" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>0</v>
@@ -6473,10 +7234,10 @@
         <v>104</v>
       </c>
       <c r="L105" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="M105" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N105" s="1" t="s">
         <v>0</v>
@@ -6488,13 +7249,13 @@
         <v>104</v>
       </c>
       <c r="Q105" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R105" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S105" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
@@ -6509,7 +7270,7 @@
         <v>2</v>
       </c>
       <c r="E106" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>0</v>
@@ -6524,10 +7285,10 @@
         <v>105</v>
       </c>
       <c r="L106" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="M106" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N106" s="1" t="s">
         <v>0</v>
@@ -6539,13 +7300,13 @@
         <v>105</v>
       </c>
       <c r="Q106" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R106" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S106" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
@@ -6560,7 +7321,7 @@
         <v>2</v>
       </c>
       <c r="E107" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>0</v>
@@ -6575,10 +7336,10 @@
         <v>106</v>
       </c>
       <c r="L107" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="M107" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N107" s="1" t="s">
         <v>0</v>
@@ -6590,13 +7351,13 @@
         <v>106</v>
       </c>
       <c r="Q107" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R107" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S107" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
@@ -6611,7 +7372,7 @@
         <v>2</v>
       </c>
       <c r="E108" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>0</v>
@@ -6626,10 +7387,10 @@
         <v>107</v>
       </c>
       <c r="L108" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="M108" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N108" s="1" t="s">
         <v>0</v>
@@ -6641,13 +7402,13 @@
         <v>107</v>
       </c>
       <c r="Q108" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R108" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S108" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
@@ -6662,7 +7423,7 @@
         <v>2</v>
       </c>
       <c r="E109" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>0</v>
@@ -6677,10 +7438,10 @@
         <v>108</v>
       </c>
       <c r="L109" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="M109" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N109" s="1" t="s">
         <v>0</v>
@@ -6692,13 +7453,13 @@
         <v>108</v>
       </c>
       <c r="Q109" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R109" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S109" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
@@ -6713,7 +7474,7 @@
         <v>2</v>
       </c>
       <c r="E110" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>0</v>
@@ -6728,10 +7489,10 @@
         <v>109</v>
       </c>
       <c r="L110" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="M110" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N110" s="1" t="s">
         <v>0</v>
@@ -6743,13 +7504,13 @@
         <v>109</v>
       </c>
       <c r="Q110" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R110" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S110" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
@@ -6764,7 +7525,7 @@
         <v>2</v>
       </c>
       <c r="E111" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>0</v>
@@ -6779,10 +7540,10 @@
         <v>110</v>
       </c>
       <c r="L111" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="M111" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N111" s="1" t="s">
         <v>0</v>
@@ -6794,13 +7555,13 @@
         <v>110</v>
       </c>
       <c r="Q111" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R111" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S111" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
@@ -6815,7 +7576,7 @@
         <v>2</v>
       </c>
       <c r="E112" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>0</v>
@@ -6830,10 +7591,10 @@
         <v>111</v>
       </c>
       <c r="L112" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="M112" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N112" s="1" t="s">
         <v>0</v>
@@ -6845,13 +7606,13 @@
         <v>111</v>
       </c>
       <c r="Q112" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R112" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S112" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
@@ -6866,7 +7627,7 @@
         <v>2</v>
       </c>
       <c r="E113" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>0</v>
@@ -6881,10 +7642,10 @@
         <v>112</v>
       </c>
       <c r="L113" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="M113" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N113" s="1" t="s">
         <v>0</v>
@@ -6896,13 +7657,13 @@
         <v>112</v>
       </c>
       <c r="Q113" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R113" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S113" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
@@ -6917,7 +7678,7 @@
         <v>2</v>
       </c>
       <c r="E114" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>0</v>
@@ -6932,10 +7693,10 @@
         <v>113</v>
       </c>
       <c r="L114" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="M114" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N114" s="1" t="s">
         <v>0</v>
@@ -6947,13 +7708,13 @@
         <v>113</v>
       </c>
       <c r="Q114" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R114" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S114" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
@@ -6968,7 +7729,7 @@
         <v>2</v>
       </c>
       <c r="E115" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>0</v>
@@ -6983,10 +7744,10 @@
         <v>114</v>
       </c>
       <c r="L115" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="M115" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N115" s="1" t="s">
         <v>0</v>
@@ -6998,13 +7759,13 @@
         <v>114</v>
       </c>
       <c r="Q115" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R115" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S115" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
@@ -7019,7 +7780,7 @@
         <v>2</v>
       </c>
       <c r="E116" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>0</v>
@@ -7034,10 +7795,10 @@
         <v>115</v>
       </c>
       <c r="L116" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="M116" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N116" s="1" t="s">
         <v>0</v>
@@ -7049,13 +7810,13 @@
         <v>115</v>
       </c>
       <c r="Q116" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R116" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S116" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
@@ -7070,7 +7831,7 @@
         <v>2</v>
       </c>
       <c r="E117" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>0</v>
@@ -7085,10 +7846,10 @@
         <v>116</v>
       </c>
       <c r="L117" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="M117" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N117" s="1" t="s">
         <v>0</v>
@@ -7100,13 +7861,13 @@
         <v>116</v>
       </c>
       <c r="Q117" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R117" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S117" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
@@ -7121,7 +7882,7 @@
         <v>2</v>
       </c>
       <c r="E118" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>0</v>
@@ -7136,10 +7897,10 @@
         <v>117</v>
       </c>
       <c r="L118" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="M118" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N118" s="1" t="s">
         <v>0</v>
@@ -7151,13 +7912,13 @@
         <v>117</v>
       </c>
       <c r="Q118" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R118" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S118" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
@@ -7172,7 +7933,7 @@
         <v>2</v>
       </c>
       <c r="E119" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>0</v>
@@ -7187,10 +7948,10 @@
         <v>118</v>
       </c>
       <c r="L119" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="M119" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N119" s="1" t="s">
         <v>0</v>
@@ -7202,13 +7963,13 @@
         <v>118</v>
       </c>
       <c r="Q119" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R119" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S119" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
@@ -7223,7 +7984,7 @@
         <v>2</v>
       </c>
       <c r="E120" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>0</v>
@@ -7238,10 +7999,10 @@
         <v>119</v>
       </c>
       <c r="L120" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="M120" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N120" s="1" t="s">
         <v>0</v>
@@ -7253,13 +8014,13 @@
         <v>119</v>
       </c>
       <c r="Q120" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R120" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S120" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
@@ -7274,7 +8035,7 @@
         <v>2</v>
       </c>
       <c r="E121" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>0</v>
@@ -7289,10 +8050,10 @@
         <v>120</v>
       </c>
       <c r="L121" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="M121" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N121" s="1" t="s">
         <v>0</v>
@@ -7304,13 +8065,13 @@
         <v>120</v>
       </c>
       <c r="Q121" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R121" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S121" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
@@ -7325,7 +8086,7 @@
         <v>2</v>
       </c>
       <c r="E122" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>0</v>
@@ -7340,10 +8101,10 @@
         <v>121</v>
       </c>
       <c r="L122" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="M122" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N122" s="1" t="s">
         <v>0</v>
@@ -7355,13 +8116,13 @@
         <v>121</v>
       </c>
       <c r="Q122" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R122" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S122" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
@@ -7376,7 +8137,7 @@
         <v>2</v>
       </c>
       <c r="E123" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>0</v>
@@ -7391,10 +8152,10 @@
         <v>122</v>
       </c>
       <c r="L123" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="M123" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N123" s="1" t="s">
         <v>0</v>
@@ -7406,13 +8167,13 @@
         <v>122</v>
       </c>
       <c r="Q123" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R123" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S123" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
@@ -7427,7 +8188,7 @@
         <v>2</v>
       </c>
       <c r="E124" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>0</v>
@@ -7442,10 +8203,10 @@
         <v>123</v>
       </c>
       <c r="L124" t="s">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="M124" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N124" s="1" t="s">
         <v>0</v>
@@ -7457,13 +8218,13 @@
         <v>123</v>
       </c>
       <c r="Q124" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R124" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S124" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
@@ -7478,7 +8239,7 @@
         <v>2</v>
       </c>
       <c r="E125" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>0</v>
@@ -7493,10 +8254,10 @@
         <v>124</v>
       </c>
       <c r="L125" t="s">
-        <v>7</v>
+        <v>138</v>
       </c>
       <c r="M125" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N125" s="1" t="s">
         <v>0</v>
@@ -7508,13 +8269,13 @@
         <v>124</v>
       </c>
       <c r="Q125" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R125" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S125" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
@@ -7529,7 +8290,7 @@
         <v>2</v>
       </c>
       <c r="E126" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>0</v>
@@ -7544,10 +8305,10 @@
         <v>125</v>
       </c>
       <c r="L126" t="s">
-        <v>7</v>
+        <v>138</v>
       </c>
       <c r="M126" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N126" s="1" t="s">
         <v>0</v>
@@ -7559,13 +8320,13 @@
         <v>125</v>
       </c>
       <c r="Q126" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R126" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S126" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
@@ -7580,7 +8341,7 @@
         <v>2</v>
       </c>
       <c r="E127" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>0</v>
@@ -7595,10 +8356,10 @@
         <v>126</v>
       </c>
       <c r="L127" t="s">
-        <v>7</v>
+        <v>138</v>
       </c>
       <c r="M127" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N127" s="1" t="s">
         <v>0</v>
@@ -7610,13 +8371,13 @@
         <v>126</v>
       </c>
       <c r="Q127" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R127" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S127" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
@@ -7631,7 +8392,7 @@
         <v>2</v>
       </c>
       <c r="E128" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>0</v>
@@ -7646,10 +8407,10 @@
         <v>127</v>
       </c>
       <c r="L128" t="s">
-        <v>7</v>
+        <v>138</v>
       </c>
       <c r="M128" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N128" s="1" t="s">
         <v>0</v>
@@ -7661,13 +8422,13 @@
         <v>127</v>
       </c>
       <c r="Q128" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R128" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S128" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
@@ -7682,7 +8443,7 @@
         <v>2</v>
       </c>
       <c r="E129" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>0</v>
@@ -7697,10 +8458,10 @@
         <v>128</v>
       </c>
       <c r="L129" t="s">
-        <v>7</v>
+        <v>138</v>
       </c>
       <c r="M129" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N129" s="1" t="s">
         <v>0</v>
@@ -7712,13 +8473,13 @@
         <v>128</v>
       </c>
       <c r="Q129" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R129" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S129" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
@@ -7733,7 +8494,7 @@
         <v>2</v>
       </c>
       <c r="E130" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>0</v>
@@ -7748,10 +8509,10 @@
         <v>129</v>
       </c>
       <c r="L130" t="s">
-        <v>7</v>
+        <v>138</v>
       </c>
       <c r="M130" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N130" s="1" t="s">
         <v>0</v>
@@ -7763,13 +8524,13 @@
         <v>129</v>
       </c>
       <c r="Q130" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R130" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S130" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
@@ -7784,7 +8545,7 @@
         <v>2</v>
       </c>
       <c r="E131" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>0</v>
@@ -7799,10 +8560,10 @@
         <v>130</v>
       </c>
       <c r="L131" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="M131" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N131" s="1" t="s">
         <v>0</v>
@@ -7814,13 +8575,13 @@
         <v>130</v>
       </c>
       <c r="Q131" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R131" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S131" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
